--- a/biology/Botanique/Juncus_acutus/Juncus_acutus.xlsx
+++ b/biology/Botanique/Juncus_acutus/Juncus_acutus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Jonc piquant (Juncus acutus) est une espèce de plantes monocotylédones de la famille des Juncaceae. Il pousse dans les eaux des marais salés et sur les dunes et est utilisé pour lutter contre l'érosion.
 </t>
@@ -511,7 +523,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Juncus acutus pousse sur toutes sortes de sols, allant des zones inondées aux zones sèches comme les dunes, en passant par les prairies et les forêts de plaine, les zones ripariennes, les zones humides d'eau douce ou salée.
 </t>
@@ -542,9 +556,11 @@
           <t>Statuts de protection, menaces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est évaluée comme non préoccupante aux échelons mondial, européen et français[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est évaluée comme non préoccupante aux échelons mondial, européen et français.
 En France l'espèce a disparu (RE) en Haute-Normandie ; elle est considérée vulnérable (VU) en Pays de la Loire.
 </t>
         </is>
@@ -574,17 +590,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante vivace brun vert qui peut atteindre 1,5 mètre de haut.
-Tiges et feuilles
-Les tiges et les feuilles partent de la base à des angles différents donnant à la plante un aspect globuleux. Les feuilles engainent les tiges florales et se terminent par une pointe aiguë rigide. Leurs piqûres peuvent être douloureuses.
-Fleurs
-La floraison a lieu de mai à juillet[3]. Les tiges florales font de 2 à 4 millimètres de diamètre et 4 à 13 cm de long et émergent de la base de la plante. Elles ont chacune de 1 à 6 fleurs. Chaque fleur a 6 étamines et de longues bractées de 4 à 25 centimètres de long qui se terminent par une pointe rigide. Les fleurs sont hermaphrodites et sont pollinisées par le vent.
-Fruits
-Les fruits sont des capsules ovales marron à 3 loges de 4 à 6 millimètres de diamètre. Les graines allongées et brunes font de 1,2 mm à 2 mm de long et ont une queue à chaque extrémité.
-Racines
-Rhizomes courts et robustes.
 </t>
         </is>
       </c>
@@ -610,10 +620,160 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Tiges et feuilles</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les tiges et les feuilles partent de la base à des angles différents donnant à la plante un aspect globuleux. Les feuilles engainent les tiges florales et se terminent par une pointe aiguë rigide. Leurs piqûres peuvent être douloureuses.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Juncus_acutus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Juncus_acutus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Fleurs</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La floraison a lieu de mai à juillet. Les tiges florales font de 2 à 4 millimètres de diamètre et 4 à 13 cm de long et émergent de la base de la plante. Elles ont chacune de 1 à 6 fleurs. Chaque fleur a 6 étamines et de longues bractées de 4 à 25 centimètres de long qui se terminent par une pointe rigide. Les fleurs sont hermaphrodites et sont pollinisées par le vent.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Juncus_acutus</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Juncus_acutus</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Fruits</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fruits sont des capsules ovales marron à 3 loges de 4 à 6 millimètres de diamètre. Les graines allongées et brunes font de 1,2 mm à 2 mm de long et ont une queue à chaque extrémité.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Juncus_acutus</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Juncus_acutus</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Racines</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rhizomes courts et robustes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Juncus_acutus</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Juncus_acutus</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Afrique du Nord: Algérie, Égypte, Maroc
 Asie occidentale: Iran, Irak, Israël, Jordanie, Liban, Turquie
@@ -625,71 +785,75 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Juncus_acutus</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Juncus_acutus</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Juncus_acutus</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Juncus_acutus</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Espèce envahissante</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans certains pays comme l'Australie, Juncus acutus est considéré comme une espèce envahissante.
 </t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Juncus_acutus</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Juncus_acutus</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Juncus_acutus</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Juncus_acutus</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Juncus acutus subsp leopoldii (Parl.) Snog. [4]
-Juncus acutus L. var. sphaerocarpus Engelm[5]
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Juncus acutus subsp leopoldii (Parl.) Snog. 
+Juncus acutus L. var. sphaerocarpus Engelm
 Juncus acutus L. subsp. acutus
-Juncus spinosus Forssk. [6]
-Juncus acutus subsp leopoldii est originaire de l'Arizona, la Californie, Géorgie et le Nevada[5]
+Juncus spinosus Forssk. 
+Juncus acutus subsp leopoldii est originaire de l'Arizona, la Californie, Géorgie et le Nevada
 Juncus acutus L. var. conglobatus Trautv.
 Juncus acutus L. var. decompositus Guss.
-Juncus acutus L. var. longibracteatus Buchenau[7]</t>
+Juncus acutus L. var. longibracteatus Buchenau</t>
         </is>
       </c>
     </row>
